--- a/xlsx/亚当·斯密_intext.xlsx
+++ b/xlsx/亚当·斯密_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
   <si>
     <t>亚当·斯密</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大不列顛王國</t>
+    <t>大不列颠王国</t>
   </si>
   <si>
     <t>政策_政策_管理_亚当·斯密</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%88%86%E5%B7%A5</t>
   </si>
   <si>
-    <t>勞動分工</t>
+    <t>劳动分工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%93%88%E5%A5%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>法蘭西斯·哈奇森</t>
+    <t>法兰西斯·哈奇森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E9%A9%AC%E5%B0%94%E8%90%A8%E6%96%AF</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6%E5%AE%B6</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AF%8C%E8%AB%96</t>
   </si>
   <si>
-    <t>國富論</t>
+    <t>国富论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%A4%AB</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%96%AF%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格拉斯哥大學</t>
+    <t>格拉斯哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6%E8%B4%9D%E5%88%A9%E5%A5%A5%E5%B0%94%E5%AD%A6%E9%99%A2</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E4%B8%81%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛丁堡大學</t>
+    <t>爱丁堡大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>蘇格蘭啟蒙運動</t>
+    <t>苏格兰启蒙运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E6%83%85%E6%93%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>道德情操論</t>
+    <t>道德情操论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E9%98%BF%E4%BB%80%E5%88%A9-%E6%9F%AF%E6%9F%8F%EF%BC%8C%E7%AC%AC%E4%B8%89%E4%BB%A3%E6%B2%99%E5%A4%AB%E8%8C%A8%E4%BC%AF%E9%87%8C%E4%BC%AF%E7%88%B5</t>
   </si>
   <si>
-    <t>安東尼·阿什利-柯柏，第三代沙夫茨伯里伯爵</t>
+    <t>安东尼·阿什利-柯柏，第三代沙夫茨伯里伯爵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E5%88%A9%E4%B8%BB%E4%B9%89</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%B8%83%E9%9B%B7%E5%85%8B</t>
   </si>
   <si>
-    <t>約瑟夫·布雷克</t>
+    <t>约瑟夫·布雷克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B5%AB%E9%A1%BF</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
+    <t>英镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A</t>
@@ -431,49 +431,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府自由主義</t>
+    <t>无政府自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族自由主義</t>
+    <t>民族自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
@@ -485,15 +485,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E7%A6%8F%E6%A0%BC%E6%A3%AE</t>
   </si>
   <si>
@@ -503,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%82%91%E4%BD%9B%E9%81%9C</t>
   </si>
   <si>
-    <t>湯瑪斯·傑佛遜</t>
+    <t>汤玛斯·杰佛逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
   </si>
   <si>
-    <t>湯瑪斯·潘恩</t>
+    <t>汤玛斯·潘恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E7%88%BE%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努爾·康德</t>
+    <t>伊曼努尔·康德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%B7%B4%E6%96%AF%E5%A4%8F</t>
@@ -551,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特蘭·羅素</t>
+    <t>伯特兰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
@@ -575,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·羅爾斯</t>
+    <t>约翰·罗尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A5%E5%A4%8D</t>
@@ -611,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%87%AA%E7%94%B1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際自由聯盟</t>
+    <t>国际自由联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E6%94%B9%E9%9D%A9%E9%BB%A8</t>
   </si>
   <si>
-    <t>歐洲自由民主改革黨</t>
+    <t>欧洲自由民主改革党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲自由民主聯盟</t>
+    <t>欧洲自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Liberalism</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>貴金屬</t>
+    <t>贵金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
@@ -653,19 +647,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%B3%87%E9%90%B5%E5%BE%8B</t>
   </si>
   <si>
-    <t>工資鐵律</t>
+    <t>工资铁律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%8B%E4%B8%8D%E8%A6%8B%E7%9A%84%E6%89%8B</t>
   </si>
   <si>
-    <t>看不見的手</t>
+    <t>看不见的手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%9E%E4%BA%89</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA%E5%A9%AA</t>
   </si>
   <si>
-    <t>貪婪</t>
+    <t>贪婪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD</t>
@@ -695,9 +689,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>經濟學家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86%E9%97%AE%E9%A2%98</t>
   </si>
   <si>
@@ -713,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E5%90%8D%E7%BF%BB%E8%AD%AF%E5%A4%A7%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>世界人名翻譯大辭典</t>
+    <t>世界人名翻译大辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E8%AE%A1%E5%88%92</t>
@@ -773,15 +764,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%98%8E%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>開明專制</t>
+    <t>开明专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%9C%BA</t>
   </si>
   <si>
-    <t>自由市场</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E5%8D%A1%E6%8B%89%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
@@ -803,9 +791,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>古典自由主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E3%80%81%E5%B9%B3%E7%AD%89%E3%80%81%E5%8D%9A%E7%88%B1</t>
   </si>
   <si>
@@ -827,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7</t>
@@ -935,9 +920,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
   </si>
   <si>
-    <t>孟德斯鸠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
   </si>
   <si>
@@ -971,9 +953,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努尔·康德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E7%89%B9%E9%9C%8D%E5%B0%94%E5%BE%B7%C2%B7%E5%9F%83%E5%A4%AB%E8%8E%B1%E5%A7%86%C2%B7%E8%8E%B1%E8%BE%9B</t>
   </si>
   <si>
@@ -1019,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%96%A9%E9%9B%B7%C2%B7%E8%B2%9D%E5%8D%A1%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>切薩雷·貝卡里亞</t>
+    <t>切萨雷·贝卡里亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gaetano_Filangieri</t>
@@ -1127,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>約瑟夫·布拉克</t>
+    <t>约瑟夫·布拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%8C%85%E6%96%AF%E5%A8%81%E5%B0%94</t>
@@ -1193,7 +1172,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%A2%85%E6%A3%AE</t>
   </si>
   <si>
-    <t>喬治·梅森</t>
+    <t>乔治·梅森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
@@ -1205,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1223,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1241,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1265,13 +1244,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4038,7 +4017,7 @@
         <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4064,10 +4043,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>7</v>
@@ -4093,10 +4072,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4122,10 +4101,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4151,10 +4130,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4209,10 +4188,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4238,10 +4217,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4296,10 +4275,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4325,10 +4304,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4383,10 +4362,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4412,10 +4391,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4470,10 +4449,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4499,10 +4478,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4528,10 +4507,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4557,10 +4536,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4586,10 +4565,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4615,10 +4594,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4644,10 +4623,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4673,10 +4652,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4702,10 +4681,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4731,10 +4710,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4760,10 +4739,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4789,10 +4768,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4818,10 +4797,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4847,10 +4826,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G111" t="n">
         <v>11</v>
@@ -4876,10 +4855,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4905,10 +4884,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4934,10 +4913,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5021,10 +5000,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5050,10 +5029,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5079,10 +5058,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5108,10 +5087,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5137,10 +5116,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5166,10 +5145,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5195,10 +5174,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5224,10 +5203,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F124" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="G124" t="n">
         <v>9</v>
@@ -5253,10 +5232,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F125" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5282,10 +5261,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F126" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5311,10 +5290,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5340,10 +5319,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F128" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5369,10 +5348,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5398,10 +5377,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5427,10 +5406,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F131" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5485,10 +5464,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F133" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5543,10 +5522,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F135" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5572,10 +5551,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F136" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5601,10 +5580,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F137" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5630,10 +5609,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F138" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G138" t="n">
         <v>9</v>
@@ -5659,10 +5638,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F139" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5688,10 +5667,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F140" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5717,10 +5696,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F141" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5746,10 +5725,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F142" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5775,10 +5754,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F143" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5804,10 +5783,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5833,10 +5812,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F145" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5862,10 +5841,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F146" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5891,10 +5870,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F147" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5920,10 +5899,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F148" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5949,10 +5928,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F149" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5978,10 +5957,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F150" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6007,10 +5986,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F151" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -6036,10 +6015,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F152" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6065,10 +6044,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F153" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6094,10 +6073,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F154" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6123,10 +6102,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F155" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6152,10 +6131,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F156" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6181,10 +6160,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F157" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6210,10 +6189,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F158" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6239,10 +6218,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F159" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6268,10 +6247,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F160" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6297,10 +6276,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F161" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6326,10 +6305,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F162" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6355,10 +6334,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F163" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6384,10 +6363,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F164" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6413,10 +6392,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F165" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6442,10 +6421,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6471,10 +6450,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F167" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6500,10 +6479,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6529,10 +6508,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6558,10 +6537,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F170" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6587,10 +6566,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F171" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6616,10 +6595,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F172" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6645,10 +6624,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6674,10 +6653,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F174" t="s">
-        <v>318</v>
+        <v>164</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6703,10 +6682,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6732,10 +6711,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6761,10 +6740,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F177" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6790,10 +6769,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F178" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6819,10 +6798,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F179" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6848,10 +6827,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F180" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6877,10 +6856,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F181" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6906,10 +6885,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F182" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6935,10 +6914,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F183" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6964,10 +6943,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F184" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6993,10 +6972,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F185" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7022,10 +7001,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F186" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7051,10 +7030,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F187" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7080,10 +7059,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7109,10 +7088,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F189" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7138,10 +7117,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F190" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7167,10 +7146,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7196,10 +7175,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F192" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7225,10 +7204,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F193" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7254,10 +7233,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F194" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7283,10 +7262,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F195" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7312,10 +7291,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F196" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7341,10 +7320,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F197" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7370,10 +7349,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F198" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7399,10 +7378,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F199" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7428,10 +7407,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F200" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7457,10 +7436,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F201" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7486,10 +7465,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F202" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7515,10 +7494,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F203" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7544,10 +7523,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7602,10 +7581,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F206" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7660,10 +7639,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F208" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7689,10 +7668,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F209" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7718,10 +7697,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F210" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7747,10 +7726,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F211" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7776,10 +7755,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F212" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7805,10 +7784,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F213" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7834,10 +7813,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F214" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7863,10 +7842,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F215" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7892,10 +7871,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F216" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -7921,10 +7900,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F217" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7950,10 +7929,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F218" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7979,10 +7958,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F219" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8008,10 +7987,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F220" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8037,10 +8016,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F221" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8066,10 +8045,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F222" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8095,10 +8074,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F223" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8124,10 +8103,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F224" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8153,10 +8132,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F225" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8182,10 +8161,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F226" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8211,10 +8190,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F227" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8240,10 +8219,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F228" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8269,10 +8248,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F229" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8298,10 +8277,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F230" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
